--- a/paper_table_1.xlsx
+++ b/paper_table_1.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{F857F082-7E55-4521-94F4-DBEBF2B09CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="240" windowWidth="19200" windowHeight="8750" xr2:uid="{D74AD142-3D8C-42E3-BD00-5748BB41988B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D74AD142-3D8C-42E3-BD00-5748BB41988B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
